--- a/home-service-server/src/main/resources/customer-1.xlsx
+++ b/home-service-server/src/main/resources/customer-1.xlsx
@@ -5,29 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuuTien\Java\Spring_Workspace\in-home-services-api\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuuTien\TLCN\in-home-services-api\home-service-server\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A311F13-D59D-4D9F-8657-E63153522C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E37DAF4-108F-41E1-98FD-4E68DA6BE910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
   <si>
     <t>859 Nhất Chi Mai, Phường 13, Tân Bình, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3154 7108</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -43,9 +53,6 @@
     <t>5/17/2009</t>
   </si>
   <si>
-    <t>+84 28 3592 1811</t>
-  </si>
-  <si>
     <t>loyaltycoercive</t>
   </si>
   <si>
@@ -58,9 +65,6 @@
     <t>539 Đường Trần Văn Kiểu, Phường 10, Quận 6, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3588 6289</t>
-  </si>
-  <si>
     <t>suitperemptory</t>
   </si>
   <si>
@@ -70,12 +74,6 @@
     <t>11/15/2003</t>
   </si>
   <si>
-    <t>872 Kinh Đ. Vương, An Lạc, Bình Tân, Thành phố Hồ Chí Minh Việt Nam</t>
-  </si>
-  <si>
-    <t>+84 28 3791 4204</t>
-  </si>
-  <si>
     <t>cubeinfallible</t>
   </si>
   <si>
@@ -88,9 +86,6 @@
     <t>731 Đường Trịnh Quang Nghị, Phường 7, Quận 8, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3853 1196</t>
-  </si>
-  <si>
     <t>physicistabsorbing</t>
   </si>
   <si>
@@ -103,9 +98,6 @@
     <t>112 Nhất Chi Mai, Phường 13, Tân Bình, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3176 8930</t>
-  </si>
-  <si>
     <t>authorizationsuperhuman</t>
   </si>
   <si>
@@ -118,9 +110,6 @@
     <t>298 Bàu Cát, Phường 14, Tân Bình, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3673 8077</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -133,9 +122,6 @@
     <t>2/8/2007</t>
   </si>
   <si>
-    <t>+84 28 3741 2878</t>
-  </si>
-  <si>
     <t>dynastythrough</t>
   </si>
   <si>
@@ -148,9 +134,6 @@
     <t>832 Đ. Gia Phú, Phường 3, Quận 6, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3838 8287</t>
-  </si>
-  <si>
     <t>bedspeeding</t>
   </si>
   <si>
@@ -160,9 +143,6 @@
     <t>10/3/1978</t>
   </si>
   <si>
-    <t>+84 28 3713 9464</t>
-  </si>
-  <si>
     <t>magiccentrifugal</t>
   </si>
   <si>
@@ -172,9 +152,6 @@
     <t>3/11/1978</t>
   </si>
   <si>
-    <t>+84 28 3141 9951</t>
-  </si>
-  <si>
     <t>stewardundefined</t>
   </si>
   <si>
@@ -187,9 +164,6 @@
     <t>160 Tân Kỳ Tân Quý, Sơn Kỳ, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3119 3385</t>
-  </si>
-  <si>
     <t>hoseequestrian</t>
   </si>
   <si>
@@ -202,9 +176,6 @@
     <t>215 Minh Phụng, Phường 9, Quận 11, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3470 9212</t>
-  </si>
-  <si>
     <t>shadeuntouchable</t>
   </si>
   <si>
@@ -217,9 +188,6 @@
     <t>136 Minh Phụng, Phường 9, Quận 11, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3569 3433</t>
-  </si>
-  <si>
     <t>conclusionshuddering</t>
   </si>
   <si>
@@ -232,9 +200,6 @@
     <t>577 Đ. Gia Phú, Phường 3, Quận 6, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3711 3286</t>
-  </si>
-  <si>
     <t>exchangeannounced</t>
   </si>
   <si>
@@ -247,9 +212,6 @@
     <t>89 Tân Kỳ Tân Quý, Sơn Kỳ, Tân Phú, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3361 8165</t>
-  </si>
-  <si>
     <t>foliagelabored</t>
   </si>
   <si>
@@ -262,9 +224,6 @@
     <t>89 Đ. Sư Vạn Hạnh, Phường 10, Quận 10, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3371 2612</t>
-  </si>
-  <si>
     <t>impositionconfined</t>
   </si>
   <si>
@@ -277,9 +236,6 @@
     <t>578 Đường Trần Văn Kiểu, Phường 10, Quận 6, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3166 2156</t>
-  </si>
-  <si>
     <t>mandateheartening</t>
   </si>
   <si>
@@ -292,9 +248,6 @@
     <t>799 Đường Trần Văn Kiểu, Phường 10, Quận 6, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3176 3771</t>
-  </si>
-  <si>
     <t>beastnamed</t>
   </si>
   <si>
@@ -307,9 +260,6 @@
     <t>166 Nhất Chi Mai, Phường 13, Tân Bình, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
   <si>
-    <t>+84 28 3609 4799</t>
-  </si>
-  <si>
     <t>rationalitymirrored</t>
   </si>
   <si>
@@ -509,6 +459,9 @@
   </si>
   <si>
     <t>4 Kinh Đ. Vương, An Lạc, Bình Tân, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>872 Kinh Đ. Vương, An Lạc, Bình Tân, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
 </sst>
 </file>
@@ -863,7 +816,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,640 +837,660 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="str">
+        <f ca="1">TEXT(INT(RAND()*(999999999-111111111)+111111111),"0")</f>
+        <v>987351478</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B20" ca="1" si="0">TEXT(INT(RAND()*(999999999-111111111)+111111111),"0")</f>
+        <v>530713827</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>667325077</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
+        <v>142</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>813155819</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>522147634</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>116137582</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>235157820</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
+        <v>139</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>392056393</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>440664694</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
+        <v>140</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>587597030</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
+        <v>141</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>115599095</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>797962489</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>368992677</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>777151678</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>873063235</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>855827701</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>271296165</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>467237990</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>297210002</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
+        <v>74</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>325218165</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
